--- a/demo2.xlsx
+++ b/demo2.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -42,9 +42,6 @@
     <t>城市供水单位未制定城市供水水质突发事件应急预案的处罚</t>
   </si>
   <si>
-    <t>城市供水单位未按规定上报水质报表的处罚</t>
-  </si>
-  <si>
     <t>危害城市供水水质安全的其他行为的处罚</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -72,18 +69,22 @@
     <t>城市桥梁产权人和委托管理人未及时设置警示标志或采取加固等安全措施的处罚</t>
   </si>
   <si>
-    <t>排水户排放的污水可能危及城镇排水与污水处理设施安全运行的处罚</t>
+    <t>未经批准或者未按批准事项设置户外广告的处罚</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>未经批准或者未按批准事项设置户外广告的处罚</t>
+    <t>城市供水单位未按规定上报水质报表的处罚</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>城镇排水与污水处理设施安全运行</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="5">
     <font>
       <sz val="11"/>
@@ -219,6 +220,15 @@
   </cellStyleXfs>
   <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -236,15 +246,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -264,7 +265,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -553,56 +554,56 @@
   <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="8" customWidth="1"/>
-    <col min="2" max="2" width="84.125" customWidth="1"/>
-    <col min="3" max="3" width="1.625" customWidth="1"/>
-    <col min="4" max="4" width="4.625" customWidth="1"/>
+    <col min="2" max="2" width="84.109375" customWidth="1"/>
+    <col min="3" max="3" width="1.6640625" customWidth="1"/>
+    <col min="4" max="4" width="4.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="3"/>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="6"/>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="4"/>
-      <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="6"/>
-    </row>
-    <row r="3" spans="1:5" ht="20.25">
-      <c r="A3" s="7" t="s">
+      <c r="A2" s="7"/>
+      <c r="B2" s="8"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="9"/>
+    </row>
+    <row r="3" spans="1:5" ht="20.399999999999999">
+      <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="D3" s="1" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="8">
+      <c r="A4" s="2">
         <v>1821</v>
       </c>
-      <c r="B4" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="C4" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4" s="8" t="s">
+      <c r="B4" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E4">
@@ -610,16 +611,16 @@
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="8">
+      <c r="A5" s="2">
         <v>1822</v>
       </c>
-      <c r="B5" s="9" t="s">
+      <c r="B5" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="D5" s="8" t="s">
+      <c r="C5" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E5">
@@ -627,16 +628,16 @@
       </c>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="8">
+      <c r="A6" s="2">
         <v>1823</v>
       </c>
-      <c r="B6" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="D6" s="8" t="s">
+      <c r="B6" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E6">
@@ -644,16 +645,16 @@
       </c>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" s="8">
+      <c r="A7" s="2">
         <v>1824</v>
       </c>
-      <c r="B7" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="D7" s="8" t="s">
+      <c r="B7" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E7">
@@ -661,16 +662,16 @@
       </c>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8" s="8">
+      <c r="A8" s="2">
         <v>1825</v>
       </c>
-      <c r="B8" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="C8" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="D8" s="8" t="s">
+      <c r="B8" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D8" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E8">
@@ -678,16 +679,16 @@
       </c>
     </row>
     <row r="9" spans="1:5">
-      <c r="A9" s="8">
+      <c r="A9" s="2">
         <v>1826</v>
       </c>
-      <c r="B9" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="C9" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="D9" s="8" t="s">
+      <c r="B9" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D9" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E9">
@@ -695,16 +696,16 @@
       </c>
     </row>
     <row r="10" spans="1:5">
-      <c r="A10" s="8">
+      <c r="A10" s="2">
         <v>1827</v>
       </c>
-      <c r="B10" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="C10" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="D10" s="8" t="s">
+      <c r="B10" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D10" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E10">
@@ -712,16 +713,16 @@
       </c>
     </row>
     <row r="11" spans="1:5">
-      <c r="A11" s="8">
+      <c r="A11" s="2">
         <v>1828</v>
       </c>
-      <c r="B11" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="C11" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="D11" s="8" t="s">
+      <c r="B11" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D11" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E11">
@@ -729,16 +730,16 @@
       </c>
     </row>
     <row r="12" spans="1:5">
-      <c r="A12" s="8">
+      <c r="A12" s="2">
         <v>1829</v>
       </c>
-      <c r="B12" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="C12" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="D12" s="8" t="s">
+      <c r="B12" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D12" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E12">
@@ -746,16 +747,16 @@
       </c>
     </row>
     <row r="13" spans="1:5">
-      <c r="A13" s="8">
+      <c r="A13" s="2">
         <v>1830</v>
       </c>
-      <c r="B13" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="C13" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="D13" s="8" t="s">
+      <c r="B13" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D13" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E13">
@@ -763,16 +764,16 @@
       </c>
     </row>
     <row r="14" spans="1:5">
-      <c r="A14" s="8">
+      <c r="A14" s="2">
         <v>1831</v>
       </c>
-      <c r="B14" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="C14" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="D14" s="8" t="s">
+      <c r="B14" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D14" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E14">
@@ -794,7 +795,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData/>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -807,9 +808,10 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData/>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/demo2.xlsx
+++ b/demo2.xlsx
@@ -39,45 +39,46 @@
     <t>行政处罚</t>
   </si>
   <si>
+    <t>危害城市供水水质安全的其他行为的处罚</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>城市供水单位、二次供水管理单位隐瞒、缓报、谎报水质突发事件或者水质信息的处罚</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>实施生产许可证管理的净水剂及与制水有关的材料选用未获证企业产品的处罚</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>城市供水单位使用未经检验或者检验不合格的城市供水设备、管网的处罚</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>二次供水管理单位未按规定对各类储水设施进行清洗消毒的处罚</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>城市供水单位使用未经检验或者检验不合格的城市供水及有关制水材料的处罚</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>城市桥梁产权人和委托管理人未及时设置警示标志或采取加固等安全措施的处罚</t>
+  </si>
+  <si>
+    <t>未经批准或者未按批准事项设置户外广告的处罚</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>城市供水单位未按规定上报水质报表的处罚</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>城市供水单位未制定城市供水水质突发事件应急预案的处罚</t>
-  </si>
-  <si>
-    <t>危害城市供水水质安全的其他行为的处罚</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>城市供水单位、二次供水管理单位隐瞒、缓报、谎报水质突发事件或者水质信息的处罚</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>实施生产许可证管理的净水剂及与制水有关的材料选用未获证企业产品的处罚</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>城市供水单位使用未经检验或者检验不合格的城市供水设备、管网的处罚</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>二次供水管理单位未按规定对各类储水设施进行清洗消毒的处罚</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>城市供水单位使用未经检验或者检验不合格的城市供水及有关制水材料的处罚</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>城市桥梁产权人和委托管理人未及时设置警示标志或采取加固等安全措施的处罚</t>
-  </si>
-  <si>
-    <t>未经批准或者未按批准事项设置户外广告的处罚</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>城市供水单位未按规定上报水质报表的处罚</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>城镇排水与污水处理设施安全运行</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>城镇排水</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -554,7 +555,7 @@
   <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -615,7 +616,7 @@
         <v>1822</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>5</v>
@@ -632,7 +633,7 @@
         <v>1823</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>5</v>
@@ -649,7 +650,7 @@
         <v>1824</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>5</v>
@@ -666,7 +667,7 @@
         <v>1825</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>5</v>
@@ -683,7 +684,7 @@
         <v>1826</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>5</v>
@@ -700,7 +701,7 @@
         <v>1827</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>5</v>
@@ -717,7 +718,7 @@
         <v>1828</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>5</v>
@@ -734,7 +735,7 @@
         <v>1829</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>5</v>
@@ -751,7 +752,7 @@
         <v>1830</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>5</v>
@@ -768,7 +769,7 @@
         <v>1831</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>5</v>

--- a/demo2.xlsx
+++ b/demo2.xlsx
@@ -8,15 +8,16 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$3:$D$238</definedName>
+  </definedNames>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="711" uniqueCount="248">
   <si>
     <t>行政权力事项目录清单表</t>
   </si>
@@ -33,10 +34,608 @@
     <t>事项类别</t>
   </si>
   <si>
+    <t>占用、挖掘城市道路及依附城市道路建设管线、杆线等设施许可</t>
+  </si>
+  <si>
     <t>市城管局</t>
   </si>
   <si>
+    <t>行政许可</t>
+  </si>
+  <si>
+    <t>城市排水许可证核发</t>
+  </si>
+  <si>
+    <t>城市建筑垃圾处置核准</t>
+  </si>
+  <si>
+    <t>从事城市生活垃圾经营性清扫、收集、运输、处理服务审批</t>
+  </si>
+  <si>
+    <t>城市户外广告设置（悬挂、张贴宣传品）审批</t>
+  </si>
+  <si>
+    <t>城镇燃气经营许可和燃气设施改动审批</t>
+  </si>
+  <si>
+    <t>在城市道路两侧和公共场地临时堆放物料，搭建临时建筑物、构筑物或者其他设施审批</t>
+  </si>
+  <si>
     <t>行政处罚</t>
+  </si>
+  <si>
+    <t>城市供水单位未制定城市供水水质突发事件应急预案的处罚</t>
+  </si>
+  <si>
+    <t>城市供水单位未按规定上报水质报表的处罚</t>
+  </si>
+  <si>
+    <t>城市桥梁产权人和委托管理人未及时设置警示标志或采取加固等安全措施的处罚</t>
+  </si>
+  <si>
+    <t>未按照规定制定城市桥梁的安全抢险预备方案的处罚</t>
+  </si>
+  <si>
+    <t>城市景观过度照明等超能耗标准的处罚</t>
+  </si>
+  <si>
+    <t>未按照设计图纸施工或者擅自修改图纸的处罚</t>
+  </si>
+  <si>
+    <t>在桥梁上架设压力在4公斤每平方厘米以上的煤气管道、每千伏以上的高压电力线和其他易燃易爆管线的处罚</t>
+  </si>
+  <si>
+    <t>擅自在城市道路上建设建筑物、构筑物的处罚</t>
+  </si>
+  <si>
+    <t>机动车在桥梁或者非指定的城市道路上试刹车的处罚</t>
+  </si>
+  <si>
+    <t>擅自使用未经验收或者验收不合格的城市道路的处罚</t>
+  </si>
+  <si>
+    <t>占用城市道路期满或挖掘城市道路后，不及时清理现场的处罚</t>
+  </si>
+  <si>
+    <t>未对设在城市道路上的各种管线的检查井、箱盖或者城市道路附属设施的缺损及时修补或者修复的处罚</t>
+  </si>
+  <si>
+    <t>未在城市道路施工现场设置明显标志和安全防围设施的处罚</t>
+  </si>
+  <si>
+    <t>紧急抢修埋设在城市道路下的管线，不按规定补办批准手续的处罚</t>
+  </si>
+  <si>
+    <t>未取得设计、施工资格或者未按照资质等级承担城市道路的设计、施工任务的处罚</t>
+  </si>
+  <si>
+    <t>未按照城市道路设计、施工技术规范设计、施工的处罚</t>
+  </si>
+  <si>
+    <t>未按照批准的位置、面积、期限占用或者挖掘城市道路，或者需要移动位置、扩大面积、延长时间，未提前变更审批手续的处罚</t>
+  </si>
+  <si>
+    <t>擅自在桥梁、桥涵或者城市照明设施上架设管线、设置广告牌或其它挂浮物的处罚</t>
+  </si>
+  <si>
+    <t>城镇排水设施运营单位未按规定对城镇排水设施维护、检修等的处罚</t>
+  </si>
+  <si>
+    <t>有关单位未与施工单位、设施维护运营单位等共同制定排水设施保护方案，并采取相应的安全防护措施的处罚</t>
+  </si>
+  <si>
+    <t>擅自拆除、改动城镇排水与污水处理设施的处罚</t>
+  </si>
+  <si>
+    <t>城镇排水与污水处理设施维护运营单位未按照国家有关规定履行日常巡查、维修和养护责任，保障设施安全运行的处罚</t>
+  </si>
+  <si>
+    <t>城镇排水与污水处理设施维护运营单位因巡查、维护不到位，导致窨井盖丢失、损毁，造成人员伤亡和财产损失的处罚</t>
+  </si>
+  <si>
+    <t>城镇排水与污水处理设施维护运营单位未及时采取防护措施、组织事故抢修的处罚</t>
+  </si>
+  <si>
+    <t>违反规定从事危及城镇排水与污水处理设施安全活动的处罚</t>
+  </si>
+  <si>
+    <t>排水户不按照污水排入排水管网许可证的要求排放污水的处罚</t>
+  </si>
+  <si>
+    <t>城镇排水与污水处理设施覆盖范围内的排水单位和个人未按照国家有关规定将污水排入城镇排水设施或在雨水、污水分流地区将污水排入雨水管网的处罚</t>
+  </si>
+  <si>
+    <t>擅自将雨水管网、污水管网相互混接的处罚</t>
+  </si>
+  <si>
+    <t>擅自倾倒、堆放、丢弃、遗撒污泥的处罚</t>
+  </si>
+  <si>
+    <t>对生产的污泥以及处理处置后的污泥的去向、用途、用量等未进行跟踪、记录，或处理后污泥不符合标准的处罚</t>
+  </si>
+  <si>
+    <t>擅自停运城镇污水处理设施，未按照规定事先报告或者采取应急处理措施的处罚</t>
+  </si>
+  <si>
+    <t>排水单位或者个人不缴纳污水处理费的处罚</t>
+  </si>
+  <si>
+    <t>排水户拒不接受水质、水量监测或者妨碍、阻挠城镇排水主管部门依法监督检查的处罚</t>
+  </si>
+  <si>
+    <t>排水户以欺骗、贿赂等不正当手段取得排水许可的处罚</t>
+  </si>
+  <si>
+    <t>在燃气设施保护范围内从事敷设管道等可能影响燃气设施安全活动的处罚</t>
+  </si>
+  <si>
+    <t>在燃气设施保护范围内放置易燃易爆物品或者种植深根植物的处罚</t>
+  </si>
+  <si>
+    <t>在燃气设施保护范围内从事危险行为的处罚</t>
+  </si>
+  <si>
+    <t>擅自操作公用燃气阀门或公共管道阀门的处罚</t>
+  </si>
+  <si>
+    <t>将燃气管道作为负重支架或者接地引线的处罚</t>
+  </si>
+  <si>
+    <t>燃气用户及相关单位和个人在不具备安全条件的场所使用、储存燃气的处罚</t>
+  </si>
+  <si>
+    <t>燃气经营者未向燃气用户持续、稳定、安全供应符合国家质量标准的燃气，或者未对燃气用户的燃气设施定期进行安全检查的处罚</t>
+  </si>
+  <si>
+    <t>燃气经营者未履行必要告知义务擅自停止供气、调整供气量，或者未经审批擅自停业或者歇业的处罚</t>
+  </si>
+  <si>
+    <t>燃气经营者在不具备安全条件的场所储存燃气的处罚</t>
+  </si>
+  <si>
+    <t>燃气经营者向未取得燃气经营许可证的单位或者个人提供用于经营燃气的处罚</t>
+  </si>
+  <si>
+    <t>侵占、毁损、擅自拆除、移动燃气设施或者擅自改动市政燃气设施的处罚</t>
+  </si>
+  <si>
+    <t>建设单位违反规定制定燃气设施保护方案或建设单位、施工单位未采取相应的安全保护措施的处罚</t>
+  </si>
+  <si>
+    <t>擅自改造、拆除、移动燃气设施和燃气计量装置的处罚</t>
+  </si>
+  <si>
+    <t>燃气经营者不按照燃气经营许可证的规定从事燃气经营活动的处罚</t>
+  </si>
+  <si>
+    <t>倒卖、抵押、出租、出借、转让、涂改、伪造、借用、出卖燃气经营许可证或《 资质证书》 的处罚</t>
+  </si>
+  <si>
+    <t>违反城市供水发展规划及其年度计划兴建城市供水工程的处罚</t>
+  </si>
+  <si>
+    <t>无证或者超越资证书的经营范围进行城市供水工程的设计或施工的处罚</t>
+  </si>
+  <si>
+    <t>未按国家规定的技术标准和规范进行城市供水工程的设计或施工的处罚</t>
+  </si>
+  <si>
+    <t>在不符合安全条件的场地存放已充装气瓶的处罚</t>
+  </si>
+  <si>
+    <t>未按规定进行养护、维修或者养护、维修工程质量不符合标准的处罚</t>
+  </si>
+  <si>
+    <t>未经批准擅自迁建、改建城市道路、排水、照明等设施的处罚</t>
+  </si>
+  <si>
+    <t>利用道路、桥涵、杆塔等设施设置标语、广告、悬浮物、安装线路和设备等的处罚</t>
+  </si>
+  <si>
+    <t>擅自占用车行道、人行道做临时停车场的处罚</t>
+  </si>
+  <si>
+    <t>市政设施管理范围内挖掘、堵塞、填埋、腐蚀等损害城市排水设施的处罚</t>
+  </si>
+  <si>
+    <t>燃气燃烧器具安装、维修企业的安装、维修人员以个人名义承揽燃气燃烧器具的安装、维修业务的处罚</t>
+  </si>
+  <si>
+    <t>燃气燃烧器具安装、维修企业聘用无《 岗位证书》 的人员从事安装、维修业务的处罚</t>
+  </si>
+  <si>
+    <t>管理单位对缺失、损坏的表（阀）井井盖、公共消火栓未及时补配、修复的处罚</t>
+  </si>
+  <si>
+    <t>擅自改装、复装、迁移、启闭或者损坏城市公共供水设施的处罚</t>
+  </si>
+  <si>
+    <t>在城市公共供水管道上直接装泵抽水的处罚</t>
+  </si>
+  <si>
+    <t>将含有毒、有害物质以及可能污染供水水质的管道和设施与城市公共供水管道直接连接的处罚</t>
+  </si>
+  <si>
+    <t>盗用或者转供城市公共供水的处罚</t>
+  </si>
+  <si>
+    <t>在城市公共供水设施安全保护范围内实施危害行为的处罚</t>
+  </si>
+  <si>
+    <t>擅自将自建设施供水管网或二次供水设施与城市公共供水管道连通的处罚</t>
+  </si>
+  <si>
+    <t>未按规定检修供水设施或者在供水设施发生故障后未及时抢修的处罚</t>
+  </si>
+  <si>
+    <t>供水水质、水压不符合国家规定标准的处罚</t>
+  </si>
+  <si>
+    <t>擅自停止供水或者未履行停水通知义务的处罚</t>
+  </si>
+  <si>
+    <t>未按规定采取应急供水措施的处罚</t>
+  </si>
+  <si>
+    <t>未按规定进行水质检测或未按规定对二次供水设施进行清洗、消毒的处罚</t>
+  </si>
+  <si>
+    <t>二次供水设施未按要求采取安全保护措施的处罚</t>
+  </si>
+  <si>
+    <t>在龙湖水域保护区，涂污、损毁或者擅自拆除、移动公共基础设施和公共服务设施的处罚</t>
+  </si>
+  <si>
+    <t>在龙湖水域保护区，携带犬只等宠物进入龙湖水域的处罚</t>
+  </si>
+  <si>
+    <t>毁坏城市雕塑的处罚</t>
+  </si>
+  <si>
+    <t>擅自迁移或者拆除公共城市雕塑的处罚</t>
+  </si>
+  <si>
+    <t>在城市雕塑上涂写、刻画、粘贴、搭建、吊挂、拉线的处罚</t>
+  </si>
+  <si>
+    <t>未取得相应资格承揽城市雕塑设计或者施工业务的处罚</t>
+  </si>
+  <si>
+    <t>维护管理不善造成城市雕塑污损、残缺严重的处罚</t>
+  </si>
+  <si>
+    <t>应当自行拆除违反规定建设的城市雕塑而未自行拆除的处罚</t>
+  </si>
+  <si>
+    <t>在城市饮用水地表水源一级保护区内放养畜禽、从事养殖、游泳、划船、钓鱼、野炊或洗刷车辆和其他物品污染水体的处罚</t>
+  </si>
+  <si>
+    <t>在城市饮用水地表水源一级保护区内使用炸药、毒品捕杀水生动物的处罚</t>
+  </si>
+  <si>
+    <t>在城市饮用水地下水源一级保护区内埋葬动物尸体、采砂取土的处罚</t>
+  </si>
+  <si>
+    <t>在城市饮用水地下水源一级保护区内修建厕所、渗坑、粪坑的处罚</t>
+  </si>
+  <si>
+    <t>在城市饮用水地表水源一级、二级保护区和地下水源一级保护区内设置油库、加油站或者贮存有毒有害物品的处罚</t>
+  </si>
+  <si>
+    <t>擅自截流取水的处罚</t>
+  </si>
+  <si>
+    <t>在城市饮用水地下水源一级保护区内修建污水渠道、管道和埋设输油管道或者违反规定，不采取防止地下水污染的措施，以及使用有毒有害物质填埋坑凹、沟壑的处罚</t>
+  </si>
+  <si>
+    <t>损坏市区滨河公园固定设施的处罚</t>
+  </si>
+  <si>
+    <t>擅自在市区滨河公园禁行区段通行的处罚</t>
+  </si>
+  <si>
+    <t>折采树枝、花果、随地便溺、乱扔废弃物或在市区滨河公园设施上乱贴、乱画、乱刻、乱挂及踏踩草坪的处罚</t>
+  </si>
+  <si>
+    <t>向市区滨河公园内排放污水的处罚</t>
+  </si>
+  <si>
+    <t>在市区滨河公园破坏或擅自拆除花坛、花带、绿篱、草坪的处罚</t>
+  </si>
+  <si>
+    <t>在市区滨河公园以运输工具倾倒垃圾和其他废弃物的处罚</t>
+  </si>
+  <si>
+    <t>在市区滨河公园擅自实施挖掘行为的处罚</t>
+  </si>
+  <si>
+    <t>在市区滨河公园焚烧落叶枯草及其他废弃物、漂洗脏物的处罚</t>
+  </si>
+  <si>
+    <t>在市区滨河公园盗窃、擅自砍伐花木的处罚</t>
+  </si>
+  <si>
+    <t>擅自占用市区滨河公园用地的处罚</t>
+  </si>
+  <si>
+    <t>擅自动用、转让或损坏在河道堤岸上存放的抢险防汛物资的处罚</t>
+  </si>
+  <si>
+    <t>向防洪河道内倾倒垃圾、废渣、或擅自在防洪河道内设拦筑坝或在防洪河道内漂洗有毒有害物品冲洗砂石物料的处罚</t>
+  </si>
+  <si>
+    <t>擅自占用、挖掘城市防洪河道、堤岸的处罚</t>
+  </si>
+  <si>
+    <t>在防洪河道堤岸安全保护区内挖坑取土、开荒种地、堆放物料、违法施工和建筑等的处罚</t>
+  </si>
+  <si>
+    <t>排水用户未经批准加压排水或将污水管道与雨水管道相接的处罚</t>
+  </si>
+  <si>
+    <t>建设地下管线违反规定穿通城市排水管道或检查井、雨水井的处罚</t>
+  </si>
+  <si>
+    <t>擅自在桥涵设施上挖孔打眼等影响设施正常使用，或未按规定报经批准借用桥涵架设各种管线及附属设施、妨碍桥涵正常使用的处罚</t>
+  </si>
+  <si>
+    <t>在城市排水设施保护范围内种植农作物或者挖坑取土的处罚</t>
+  </si>
+  <si>
+    <t>在城市排水设施保护范围内倾倒垃圾、粪便、废渣、施工废料或向排水设施排放灰浆及其他杂物的处罚</t>
+  </si>
+  <si>
+    <t>在城市排水设施保护范围内修建影响排水设施功能发挥和安全的建筑物、构筑物的处罚</t>
+  </si>
+  <si>
+    <t>向城市排水设施排放腐蚀性物质、剧毒物质、易燃、易爆性物质或有害气体的处罚</t>
+  </si>
+  <si>
+    <t>破坏城市照明设施，在路灯保护范围内挖坑取土、堆放物料、违法建筑及从事其他有碍道路照明设施安全的处罚</t>
+  </si>
+  <si>
+    <t>掘动道路未报市政工程管理机构验线，竣工未报验收的处罚</t>
+  </si>
+  <si>
+    <t>掘动道路未按规定分层夯实回填土或者将垃圾、及其他杂物混入回填土的处罚</t>
+  </si>
+  <si>
+    <t>施工现场没有设置安全标志和防护设施的处罚</t>
+  </si>
+  <si>
+    <t>擅自拆卸、移动或损坏河道防洪设施、公用设施及其他构筑物影响城市防洪设施功能的处罚</t>
+  </si>
+  <si>
+    <t>在铺装路面上焚烧物品、拌和、存放砂浆、石灰、混凝土、擅自移动、掘动道路设施及其他损害道路设施的处罚</t>
+  </si>
+  <si>
+    <t>违反规定涂写、刻画、张贴户外广告的处罚</t>
+  </si>
+  <si>
+    <t>户外广告图案、文字、灯光显示不全或出现污浊、锈蚀、损毁、变形等情况，未恢复完好的处罚</t>
+  </si>
+  <si>
+    <t>损坏燃气设施，影响用气安全的处罚</t>
+  </si>
+  <si>
+    <t>燃气设施发生故障，燃气企业未按规定及时抢修的处罚</t>
+  </si>
+  <si>
+    <t>燃气企业擅自停气或未履行停气通知义务的处罚</t>
+  </si>
+  <si>
+    <t>燃气企业在燃气设施故障修复后，未按规定恢复供气的处罚</t>
+  </si>
+  <si>
+    <t>燃气钢瓶未抽取真空后再充装燃气的处罚</t>
+  </si>
+  <si>
+    <t>燃气钢瓶灌装、充气不符合规定的处罚</t>
+  </si>
+  <si>
+    <t>从槽车或贮灌上直接灌装燃气钢瓶或者用气瓶相互倒灌燃气的处罚</t>
+  </si>
+  <si>
+    <t>对超过检验期限、检验不合格或者报废、改装的气瓶进行灌装的处罚</t>
+  </si>
+  <si>
+    <t>燃气钢瓶的存放、处置不符合规定的处罚</t>
+  </si>
+  <si>
+    <t>燃气钢瓶灌装前未按规定抽取残液和进行瓶体检查的处罚</t>
+  </si>
+  <si>
+    <t>燃气企业供应管道燃气没有按规定加嗅的处罚</t>
+  </si>
+  <si>
+    <t>自行倾倒燃气钢瓶残液或自行进行钢瓶之间倒罐的处罚</t>
+  </si>
+  <si>
+    <t>经检查不合格继续从事燃气经营活动的处罚</t>
+  </si>
+  <si>
+    <t>燃气设施和燃气器具安装在浴室、卫生间、起居间的处罚</t>
+  </si>
+  <si>
+    <t>将燃气管道、阀门等燃气设施、燃气器具密封或暗设，影响安全的处罚</t>
+  </si>
+  <si>
+    <t>在城市公用燃气专用配电线路和设施上搭接其他用电线路的处罚</t>
+  </si>
+  <si>
+    <t>未取得供热特许经营权擅自从事供热经营活动的处罚</t>
+  </si>
+  <si>
+    <t>超出供热特许经营范围经营的处罚</t>
+  </si>
+  <si>
+    <t>未按规定管理、维护供热设施的处罚</t>
+  </si>
+  <si>
+    <t>未按规定时间供热的处罚</t>
+  </si>
+  <si>
+    <t>未经热源单位或者供热单位同意擅自改装、拆除、迁移户外公用供热设施的处罚</t>
+  </si>
+  <si>
+    <t>在供热设施安全保护范围内擅自挖坑、掘土、打桩的处罚</t>
+  </si>
+  <si>
+    <t>在供热设施安全保护范围内 爆破作业的处罚</t>
+  </si>
+  <si>
+    <t>在供热设施安全保护范围内堆放垃圾、杂物或危险废物的处罚</t>
+  </si>
+  <si>
+    <t>在供热设施安全保护范围内倾倒、排放腐蚀性物质的处罚</t>
+  </si>
+  <si>
+    <t>擅自改变供热参数、运行方式的处罚</t>
+  </si>
+  <si>
+    <t>热用户安装热水循环装置的处罚</t>
+  </si>
+  <si>
+    <t>热用户从供热设施中取用热能的处罚</t>
+  </si>
+  <si>
+    <t>热用户改动热计量及温控设施的处罚</t>
+  </si>
+  <si>
+    <t>热用户擅自开启锁闭阀的处罚</t>
+  </si>
+  <si>
+    <t>暂扣运输工具</t>
+  </si>
+  <si>
+    <t>行政强制</t>
+  </si>
+  <si>
+    <t>暂扣继续从事违法行为的工具、机具</t>
+  </si>
+  <si>
+    <t>查封继续从事违法行为的工具、机具</t>
+  </si>
+  <si>
+    <t>加处罚款</t>
+  </si>
+  <si>
+    <t>城市道路占用挖掘费征收</t>
+  </si>
+  <si>
+    <t>行政征收</t>
+  </si>
+  <si>
+    <t>市政设施损坏补偿费征收</t>
+  </si>
+  <si>
+    <t>城镇垃圾处理费征收</t>
+  </si>
+  <si>
+    <t>城镇污水处理费征收</t>
+  </si>
+  <si>
+    <t>对本行政区域内城市生活垃圾经营性清扫、收集、运输、处置企业的检查</t>
+  </si>
+  <si>
+    <t>行政检查</t>
+  </si>
+  <si>
+    <t>城镇排水与污水处理设施运行维护和保护情况的检查</t>
+  </si>
+  <si>
+    <t>对市政公用设施执行抗灾设防强制性标准质量监督检查</t>
+  </si>
+  <si>
+    <t>对卫生责任区（单位）市容和环境卫生工作的检查</t>
+  </si>
+  <si>
+    <t>城市供水水质检查</t>
+  </si>
+  <si>
+    <t>对城市桥梁养护的检查</t>
+  </si>
+  <si>
+    <t>保护城市供水水源、维护供水设施、坚持计划用水、节约用水方面有显著成绩的单位个人的奖励</t>
+  </si>
+  <si>
+    <t>其他职权</t>
+  </si>
+  <si>
+    <t>对检举、揭发违反《 郑州市市政工程设施管理条例》 的行为的有功者的奖励</t>
+  </si>
+  <si>
+    <t>主动公开政府信息</t>
+  </si>
+  <si>
+    <t>依申请公开政府信息</t>
+  </si>
+  <si>
+    <t>企业信息公示</t>
+  </si>
+  <si>
+    <t>信访事项处理</t>
+  </si>
+  <si>
+    <t>城市环境卫生管理（清扫收运处理）</t>
+  </si>
+  <si>
+    <t>公用事业服务保障</t>
+  </si>
+  <si>
+    <t>市政设施管养维护</t>
+  </si>
+  <si>
+    <t>行政执法投诉处理</t>
+  </si>
+  <si>
+    <t>对固体废物污染损害赔偿责任和赔偿金额纠纷的行政调解</t>
+  </si>
+  <si>
+    <t>对城市供水水质突发事件应急预案的备案</t>
+  </si>
+  <si>
+    <t>对供水安全计划的备案</t>
+  </si>
+  <si>
+    <t>对供水工程竣工验收的备案</t>
+  </si>
+  <si>
+    <t>城市生活垃圾突发事件应急方案备案</t>
+  </si>
+  <si>
+    <t>联合公安部门办理履带车、铁轮车或者超重、超高、超长车辆在城市道路上行驶审批</t>
+  </si>
+  <si>
+    <t>对城镇排水与污水处理规划的备案</t>
+  </si>
+  <si>
+    <t>对城镇排水与污水处理设施建设工程竣工验收的备案</t>
+  </si>
+  <si>
+    <t>对燃气发展规划的备案</t>
+  </si>
+  <si>
+    <t>对燃气设施竣工验收情况的备案</t>
+  </si>
+  <si>
+    <t>使用建筑垃圾回填施工场地以外坑、洼地的备案</t>
+  </si>
+  <si>
+    <t>城市雕塑档案备案</t>
+  </si>
+  <si>
+    <t>对燃气企业中止经营活动的备案</t>
+  </si>
+  <si>
+    <t>对不符合燃气企业条件设立燃气供应站（点）的备案</t>
+  </si>
+  <si>
+    <t>城市管理方面具体行政行为的行政复议</t>
+  </si>
+  <si>
+    <t>排水户排放的污水可能危及城镇排水与污水处理设施安全运行的处罚</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>危害城市供水水质安全的其他行为的处罚</t>
@@ -63,22 +662,147 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>城市桥梁产权人和委托管理人未及时设置警示标志或采取加固等安全措施的处罚</t>
-  </si>
-  <si>
     <t>未经批准或者未按批准事项设置户外广告的处罚</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>城市供水单位未按规定上报水质报表的处罚</t>
+    <t>未按照规定编制城市桥梁养护维修规划计划，或规划计划未经批准即实施的处罚</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>城市供水单位未制定城市供水水质突发事件应急预案的处罚</t>
+    <t>未按照规定委托具有相应资格的机构对城市桥梁进行检测评估的处罚</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>城镇排水</t>
+    <t>城市桥梁产权人或者委托管理人未按照规定对桥梁设置相应的标志，并保持其完好、清晰的处罚</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>未按照规定对城市桥梁进行养护维修的处罚</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>超限机动车辆等未经批准擅自通过城市桥梁的处罚</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>单位或个人擅自在城市桥梁施工控制范围内从事河道疏浚、挖掘、打桩、地下管道顶进、爆破等作业的处罚</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>擅自迁移、拆除、利用城市照明设施的处罚</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>在城市照明设施安全距离内擅自植树、挖坑取土或者设置其他物体，或者倾倒含酸、碱、盐等腐蚀物或者具有腐蚀性的废渣、废液的处罚</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>擅自接用路灯电源、损坏、偷盗城市道路照明设施的处罚</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>在城市照明设施上刻划、涂污的处罚</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>依附于城市道路建设的各种管线、杆线等设施，不按规定办理批准手续的处罚</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>未取得排水许可证向排水设施排放污水的处罚</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>未按规定检测进出水水质的，或未报送污水处理水质和水量、主要污染物削减量等信息和生产运营成本等的处罚</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>未按规定及时向城镇排水主管部门申请办理变更的处罚</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>毁损、覆盖、涂改、擅自拆除或者移动燃气设施安全警示标志的处罚</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>燃气用户及相关单位和个人安装使用不符合气源要求的燃气燃烧器具的处罚</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>未按规定设置燃气设施保护装置、安全警示标志和采取安全措施的处罚</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>燃气经营者拒绝向市政燃气管网覆盖范围内符合用气条件的单位或者个人供气的处罚</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>燃气设施保护范围内进行爆破、取土等作业或者动用明火的处罚</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>销售充装单位擅自为非自有气瓶充装瓶装燃气的处罚</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>相关单位未设立售后服务站点或者未配备经考核合格的燃气燃烧器具安装、维修人员的处罚</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>燃气燃烧器具的安装、维修不符合国家有关标准的处罚</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>改变燃气用途或者转供燃气的处罚</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>燃气经营者要求燃气用户购买其指定的产品或者接受其提供的服务处罚</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>无证从事燃气经营活动的处罚</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>擅自将自建设施供水管网系统与城市公共供水管网系统连接的处罚</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>未按规定缴纳水费的处罚</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>违反规定向车用气瓶及以外的其它气瓶或者装置加气的处罚</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>燃气经营企业在经营状况或经营许可证载明的内容发生变更后，未在规定期限内报原审批机关申请办理相关手续的处罚</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>市政设施管理范围内，新建、改（扩）建各种管线、杆（塔）线、地面设备、建（构）筑物等的处罚</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>市政设施管理范围内其他地下管线穿通排水管道、检查井和雨水井的处罚</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>市政设施管理范围内占压各种窨井、通道口，阻塞排水管道、沟渠及出水口的处罚</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>由于燃气燃烧器具安装、维修原因发生燃气事故的处罚</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>城市公共供水用户擅自改变用水性质的处罚</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>两个事项在高新区为一个事项</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -86,7 +810,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -120,6 +844,14 @@
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -219,7 +951,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -229,6 +961,9 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -248,12 +983,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -552,10 +1293,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E14"/>
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:F238"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" topLeftCell="A81" workbookViewId="0">
+      <selection activeCell="H98" sqref="H98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -567,18 +1309,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="6"/>
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="7"/>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="7"/>
-      <c r="B2" s="8"/>
-      <c r="C2" s="8"/>
-      <c r="D2" s="9"/>
+      <c r="A2" s="8"/>
+      <c r="B2" s="9"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="10"/>
     </row>
     <row r="3" spans="1:5" ht="20.399999999999999">
       <c r="A3" s="1" t="s">
@@ -594,137 +1336,116 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" hidden="1">
       <c r="A4" s="2">
-        <v>1821</v>
+        <v>1814</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" hidden="1">
       <c r="A5" s="2">
-        <v>1822</v>
+        <v>1815</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" hidden="1">
       <c r="A6" s="2">
-        <v>1823</v>
+        <v>1816</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" hidden="1">
       <c r="A7" s="2">
-        <v>1824</v>
+        <v>1817</v>
       </c>
       <c r="B7" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
+    </row>
+    <row r="8" spans="1:5" hidden="1">
       <c r="A8" s="2">
-        <v>1825</v>
+        <v>1818</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" hidden="1">
       <c r="A9" s="2">
-        <v>1826</v>
+        <v>1819</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" hidden="1">
       <c r="A10" s="2">
-        <v>1827</v>
+        <v>1820</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E10">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="2">
-        <v>1828</v>
+        <v>1821</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>11</v>
+        <v>205</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="E11">
         <v>1</v>
@@ -732,33 +1453,33 @@
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="2">
-        <v>1829</v>
+        <v>1822</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="E12">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="2">
-        <v>1830</v>
+        <v>1823</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="E13">
         <v>1</v>
@@ -766,51 +1487,3728 @@
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="2">
+        <v>1824</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="2">
+        <v>1825</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="2">
+        <v>1826</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="2">
+        <v>1827</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="2">
+        <v>1828</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="2">
+        <v>1829</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" s="2">
+        <v>1830</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" s="2">
         <v>1831</v>
       </c>
-      <c r="B14" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E14">
-        <v>0</v>
+      <c r="B21" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" s="2">
+        <v>1832</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" s="2">
+        <v>1833</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" s="2">
+        <v>1834</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" s="2">
+        <v>1835</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" s="2">
+        <v>1836</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" s="2">
+        <v>1837</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="24">
+      <c r="A28" s="2">
+        <v>1838</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29" s="2">
+        <v>1839</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30" s="2">
+        <v>1840</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="24">
+      <c r="A31" s="2">
+        <v>1841</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32" s="2">
+        <v>1842</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33" s="2">
+        <v>1843</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34" s="2">
+        <v>1844</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" ht="24">
+      <c r="A35" s="2">
+        <v>1845</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="A36" s="2">
+        <v>1846</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="A37" s="2">
+        <v>1847</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="A38" s="2">
+        <v>1848</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5">
+      <c r="A39" s="2">
+        <v>1849</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5">
+      <c r="A40" s="2">
+        <v>1850</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" ht="24">
+      <c r="A41" s="2">
+        <v>1851</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5">
+      <c r="A42" s="2">
+        <v>1852</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5">
+      <c r="A43" s="2">
+        <v>1853</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5">
+      <c r="A44" s="2">
+        <v>1854</v>
+      </c>
+      <c r="B44" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5">
+      <c r="A45" s="2">
+        <v>1855</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" ht="24">
+      <c r="A46" s="2">
+        <v>1856</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5">
+      <c r="A47" s="2">
+        <v>1857</v>
+      </c>
+      <c r="B47" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5">
+      <c r="A48" s="2">
+        <v>1858</v>
+      </c>
+      <c r="B48" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" ht="24">
+      <c r="A49" s="2">
+        <v>1859</v>
+      </c>
+      <c r="B49" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5">
+      <c r="A50" s="2">
+        <v>1860</v>
+      </c>
+      <c r="B50" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" ht="24">
+      <c r="A51" s="2">
+        <v>1861</v>
+      </c>
+      <c r="B51" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" ht="24">
+      <c r="A52" s="2">
+        <v>1862</v>
+      </c>
+      <c r="B52" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E52">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5">
+      <c r="A53" s="2">
+        <v>1863</v>
+      </c>
+      <c r="B53" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5">
+      <c r="A54" s="2">
+        <v>1864</v>
+      </c>
+      <c r="B54" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D54" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5">
+      <c r="A55" s="2">
+        <v>1865</v>
+      </c>
+      <c r="B55" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D55" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5">
+      <c r="A56" s="2">
+        <v>1866</v>
+      </c>
+      <c r="B56" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D56" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E56">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" ht="24">
+      <c r="A57" s="2">
+        <v>1867</v>
+      </c>
+      <c r="B57" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D57" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5">
+      <c r="A58" s="2">
+        <v>1868</v>
+      </c>
+      <c r="B58" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D58" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" ht="24">
+      <c r="A59" s="2">
+        <v>1869</v>
+      </c>
+      <c r="B59" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D59" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5">
+      <c r="A60" s="2">
+        <v>1870</v>
+      </c>
+      <c r="B60" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D60" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" ht="24">
+      <c r="A61" s="2">
+        <v>1871</v>
+      </c>
+      <c r="B61" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D61" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E61">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5">
+      <c r="A62" s="2">
+        <v>1872</v>
+      </c>
+      <c r="B62" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D62" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E62">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5">
+      <c r="A63" s="2">
+        <v>1873</v>
+      </c>
+      <c r="B63" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D63" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E63">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5">
+      <c r="A64" s="2">
+        <v>1874</v>
+      </c>
+      <c r="B64" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D64" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5">
+      <c r="A65" s="2">
+        <v>1875</v>
+      </c>
+      <c r="B65" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D65" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5">
+      <c r="A66" s="2">
+        <v>1876</v>
+      </c>
+      <c r="B66" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="C66" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D66" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5">
+      <c r="A67" s="2">
+        <v>1877</v>
+      </c>
+      <c r="B67" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="C67" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D67" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5">
+      <c r="A68" s="2">
+        <v>1878</v>
+      </c>
+      <c r="B68" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C68" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D68" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5">
+      <c r="A69" s="2">
+        <v>1879</v>
+      </c>
+      <c r="B69" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C69" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D69" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5">
+      <c r="A70" s="2">
+        <v>1880</v>
+      </c>
+      <c r="B70" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C70" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D70" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5">
+      <c r="A71" s="2">
+        <v>1881</v>
+      </c>
+      <c r="B71" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C71" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D71" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5">
+      <c r="A72" s="2">
+        <v>1882</v>
+      </c>
+      <c r="B72" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C72" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D72" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E72">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5">
+      <c r="A73" s="2">
+        <v>1883</v>
+      </c>
+      <c r="B73" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="C73" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D73" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E73">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5">
+      <c r="A74" s="2">
+        <v>1884</v>
+      </c>
+      <c r="B74" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C74" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D74" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5">
+      <c r="A75" s="2">
+        <v>1885</v>
+      </c>
+      <c r="B75" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="C75" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D75" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5">
+      <c r="A76" s="2">
+        <v>1886</v>
+      </c>
+      <c r="B76" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="C76" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D76" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" ht="24">
+      <c r="A77" s="2">
+        <v>1887</v>
+      </c>
+      <c r="B77" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C77" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D77" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5">
+      <c r="A78" s="2">
+        <v>1888</v>
+      </c>
+      <c r="B78" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="C78" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D78" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5">
+      <c r="A79" s="2">
+        <v>1889</v>
+      </c>
+      <c r="B79" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C79" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D79" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5">
+      <c r="A80" s="2">
+        <v>1890</v>
+      </c>
+      <c r="B80" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C80" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D80" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E80">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5">
+      <c r="A81" s="2">
+        <v>1891</v>
+      </c>
+      <c r="B81" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C81" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D81" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5">
+      <c r="A82" s="2">
+        <v>1892</v>
+      </c>
+      <c r="B82" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="C82" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D82" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5">
+      <c r="A83" s="2">
+        <v>1893</v>
+      </c>
+      <c r="B83" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="C83" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D83" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E83">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5">
+      <c r="A84" s="2">
+        <v>1894</v>
+      </c>
+      <c r="B84" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="C84" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D84" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5">
+      <c r="A85" s="2">
+        <v>1895</v>
+      </c>
+      <c r="B85" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="C85" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D85" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5">
+      <c r="A86" s="2">
+        <v>1896</v>
+      </c>
+      <c r="B86" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="C86" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D86" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E86">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5">
+      <c r="A87" s="2">
+        <v>1897</v>
+      </c>
+      <c r="B87" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="C87" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D87" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E87">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5">
+      <c r="A88" s="2">
+        <v>1898</v>
+      </c>
+      <c r="B88" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C88" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D88" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5">
+      <c r="A89" s="2">
+        <v>1899</v>
+      </c>
+      <c r="B89" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="C89" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D89" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E89">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5">
+      <c r="A90" s="2">
+        <v>1900</v>
+      </c>
+      <c r="B90" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C90" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D90" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E90">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5">
+      <c r="A91" s="2">
+        <v>1901</v>
+      </c>
+      <c r="B91" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="C91" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D91" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5">
+      <c r="A92" s="2">
+        <v>1902</v>
+      </c>
+      <c r="B92" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="C92" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D92" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E92">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5">
+      <c r="A93" s="2">
+        <v>1903</v>
+      </c>
+      <c r="B93" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="C93" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D93" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E93">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5">
+      <c r="A94" s="2">
+        <v>1904</v>
+      </c>
+      <c r="B94" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C94" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D94" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E94">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5">
+      <c r="A95" s="2">
+        <v>1905</v>
+      </c>
+      <c r="B95" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="C95" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D95" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E95">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5">
+      <c r="A96" s="2">
+        <v>1906</v>
+      </c>
+      <c r="B96" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="C96" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D96" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5">
+      <c r="A97" s="2">
+        <v>1907</v>
+      </c>
+      <c r="B97" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="C97" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D97" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E97">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5">
+      <c r="A98" s="2">
+        <v>1908</v>
+      </c>
+      <c r="B98" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="C98" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D98" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E98">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" ht="24">
+      <c r="A99" s="2">
+        <v>1909</v>
+      </c>
+      <c r="B99" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="C99" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D99" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5">
+      <c r="A100" s="2">
+        <v>1910</v>
+      </c>
+      <c r="B100" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="C100" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D100" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5">
+      <c r="A101" s="2">
+        <v>1911</v>
+      </c>
+      <c r="B101" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="C101" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D101" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E101">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5">
+      <c r="A102" s="2">
+        <v>1912</v>
+      </c>
+      <c r="B102" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="C102" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D102" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E102">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5">
+      <c r="A103" s="2">
+        <v>1913</v>
+      </c>
+      <c r="B103" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="C103" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D103" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5">
+      <c r="A104" s="2">
+        <v>1914</v>
+      </c>
+      <c r="B104" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="C104" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D104" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5">
+      <c r="A105" s="2">
+        <v>1915</v>
+      </c>
+      <c r="B105" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="C105" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D105" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E105">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5">
+      <c r="A106" s="2">
+        <v>1916</v>
+      </c>
+      <c r="B106" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="C106" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D106" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E106">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5">
+      <c r="A107" s="2">
+        <v>1917</v>
+      </c>
+      <c r="B107" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="C107" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D107" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E107">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5">
+      <c r="A108" s="2">
+        <v>1918</v>
+      </c>
+      <c r="B108" s="3" t="s">
+        <v>244</v>
+      </c>
+      <c r="C108" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D108" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E108">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" ht="24">
+      <c r="A109" s="2">
+        <v>1919</v>
+      </c>
+      <c r="B109" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="C109" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D109" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E109">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5">
+      <c r="A110" s="2">
+        <v>1920</v>
+      </c>
+      <c r="B110" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="C110" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D110" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E110">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5">
+      <c r="A111" s="2">
+        <v>1921</v>
+      </c>
+      <c r="B111" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="C111" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D111" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E111">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5">
+      <c r="A112" s="2">
+        <v>1922</v>
+      </c>
+      <c r="B112" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="C112" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D112" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E112">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5">
+      <c r="A113" s="2">
+        <v>1923</v>
+      </c>
+      <c r="B113" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="C113" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D113" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E113">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5">
+      <c r="A114" s="2">
+        <v>1924</v>
+      </c>
+      <c r="B114" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="C114" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D114" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E114">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5">
+      <c r="A115" s="2">
+        <v>1925</v>
+      </c>
+      <c r="B115" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="C115" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D115" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E115">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5">
+      <c r="A116" s="2">
+        <v>1926</v>
+      </c>
+      <c r="B116" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="C116" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D116" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E116">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5">
+      <c r="A117" s="2">
+        <v>1927</v>
+      </c>
+      <c r="B117" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="C117" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D117" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E117">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5">
+      <c r="A118" s="2">
+        <v>1928</v>
+      </c>
+      <c r="B118" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="C118" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D118" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E118">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5">
+      <c r="A119" s="2">
+        <v>1929</v>
+      </c>
+      <c r="B119" s="3" t="s">
+        <v>246</v>
+      </c>
+      <c r="C119" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D119" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E119">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5">
+      <c r="A120" s="2">
+        <v>1930</v>
+      </c>
+      <c r="B120" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="C120" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D120" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E120">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5">
+      <c r="A121" s="2">
+        <v>1931</v>
+      </c>
+      <c r="B121" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="C121" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D121" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E121">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5">
+      <c r="A122" s="2">
+        <v>1932</v>
+      </c>
+      <c r="B122" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="C122" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D122" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E122">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5">
+      <c r="A123" s="2">
+        <v>1933</v>
+      </c>
+      <c r="B123" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="C123" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D123" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E123">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5">
+      <c r="A124" s="2">
+        <v>1934</v>
+      </c>
+      <c r="B124" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="C124" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D124" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E124">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5">
+      <c r="A125" s="2">
+        <v>1935</v>
+      </c>
+      <c r="B125" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="C125" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D125" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E125">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5">
+      <c r="A126" s="2">
+        <v>1936</v>
+      </c>
+      <c r="B126" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="C126" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D126" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E126">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5">
+      <c r="A127" s="2">
+        <v>1937</v>
+      </c>
+      <c r="B127" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="C127" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D127" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E127">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5">
+      <c r="A128" s="2">
+        <v>1938</v>
+      </c>
+      <c r="B128" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="C128" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D128" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E128">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5">
+      <c r="A129" s="2">
+        <v>1939</v>
+      </c>
+      <c r="B129" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="C129" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D129" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E129">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5">
+      <c r="A130" s="2">
+        <v>1940</v>
+      </c>
+      <c r="B130" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="C130" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D130" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E130">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5">
+      <c r="A131" s="2">
+        <v>1941</v>
+      </c>
+      <c r="B131" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="C131" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D131" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E131">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5">
+      <c r="A132" s="2">
+        <v>1942</v>
+      </c>
+      <c r="B132" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="C132" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D132" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E132">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5">
+      <c r="A133" s="2">
+        <v>1943</v>
+      </c>
+      <c r="B133" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="C133" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D133" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E133">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5" ht="24">
+      <c r="A134" s="2">
+        <v>1944</v>
+      </c>
+      <c r="B134" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="C134" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D134" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E134">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5">
+      <c r="A135" s="2">
+        <v>1945</v>
+      </c>
+      <c r="B135" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="C135" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D135" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E135">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5">
+      <c r="A136" s="2">
+        <v>1946</v>
+      </c>
+      <c r="B136" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="C136" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D136" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E136">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5">
+      <c r="A137" s="2">
+        <v>1947</v>
+      </c>
+      <c r="B137" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="C137" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D137" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E137">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5" ht="24">
+      <c r="A138" s="2">
+        <v>1948</v>
+      </c>
+      <c r="B138" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="C138" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D138" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E138">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5">
+      <c r="A139" s="2">
+        <v>1949</v>
+      </c>
+      <c r="B139" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="C139" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D139" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E139">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5" ht="24">
+      <c r="A140" s="2">
+        <v>1950</v>
+      </c>
+      <c r="B140" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="C140" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D140" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E140">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5">
+      <c r="A141" s="2">
+        <v>1951</v>
+      </c>
+      <c r="B141" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="C141" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D141" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E141">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5">
+      <c r="A142" s="2">
+        <v>1952</v>
+      </c>
+      <c r="B142" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="C142" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D142" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E142">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5" ht="24">
+      <c r="A143" s="2">
+        <v>1953</v>
+      </c>
+      <c r="B143" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="C143" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D143" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E143">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5">
+      <c r="A144" s="2">
+        <v>1954</v>
+      </c>
+      <c r="B144" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="C144" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D144" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E144">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5">
+      <c r="A145" s="2">
+        <v>1955</v>
+      </c>
+      <c r="B145" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="C145" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D145" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E145">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5">
+      <c r="A146" s="2">
+        <v>1956</v>
+      </c>
+      <c r="B146" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="C146" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D146" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E146">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5">
+      <c r="A147" s="2">
+        <v>1957</v>
+      </c>
+      <c r="B147" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="C147" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D147" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E147">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5">
+      <c r="A148" s="2">
+        <v>1958</v>
+      </c>
+      <c r="B148" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="C148" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D148" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E148">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5">
+      <c r="A149" s="2">
+        <v>1959</v>
+      </c>
+      <c r="B149" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="C149" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D149" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E149">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5">
+      <c r="A150" s="2">
+        <v>1960</v>
+      </c>
+      <c r="B150" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="C150" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D150" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E150">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5">
+      <c r="A151" s="2">
+        <v>1961</v>
+      </c>
+      <c r="B151" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="C151" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D151" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E151">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5" ht="24">
+      <c r="A152" s="2">
+        <v>1962</v>
+      </c>
+      <c r="B152" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="C152" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D152" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E152">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5">
+      <c r="A153" s="2">
+        <v>1963</v>
+      </c>
+      <c r="B153" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="C153" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D153" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E153">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5">
+      <c r="A154" s="2">
+        <v>1964</v>
+      </c>
+      <c r="B154" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="C154" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D154" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E154">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5">
+      <c r="A155" s="2">
+        <v>1965</v>
+      </c>
+      <c r="B155" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="C155" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D155" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E155">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5">
+      <c r="A156" s="2">
+        <v>1966</v>
+      </c>
+      <c r="B156" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="C156" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D156" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E156">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5" ht="24">
+      <c r="A157" s="2">
+        <v>1967</v>
+      </c>
+      <c r="B157" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="C157" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D157" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E157">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5">
+      <c r="A158" s="2">
+        <v>1968</v>
+      </c>
+      <c r="B158" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="C158" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D158" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E158">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5" ht="24">
+      <c r="A159" s="2">
+        <v>1969</v>
+      </c>
+      <c r="B159" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="C159" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D159" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E159">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5">
+      <c r="A160" s="2">
+        <v>1970</v>
+      </c>
+      <c r="B160" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="C160" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D160" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E160">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5">
+      <c r="A161" s="2">
+        <v>1971</v>
+      </c>
+      <c r="B161" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="C161" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D161" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E161">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5" ht="24">
+      <c r="A162" s="2">
+        <v>1972</v>
+      </c>
+      <c r="B162" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="C162" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D162" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E162">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5">
+      <c r="A163" s="2">
+        <v>1973</v>
+      </c>
+      <c r="B163" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="C163" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D163" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E163">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="164" spans="1:5">
+      <c r="A164" s="2">
+        <v>1974</v>
+      </c>
+      <c r="B164" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="C164" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D164" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E164">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="165" spans="1:5">
+      <c r="A165" s="2">
+        <v>1975</v>
+      </c>
+      <c r="B165" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="C165" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D165" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E165">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="166" spans="1:5">
+      <c r="A166" s="2">
+        <v>1976</v>
+      </c>
+      <c r="B166" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="C166" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D166" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E166">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="167" spans="1:5" ht="24">
+      <c r="A167" s="2">
+        <v>1977</v>
+      </c>
+      <c r="B167" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="C167" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D167" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E167">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="168" spans="1:5">
+      <c r="A168" s="2">
+        <v>1978</v>
+      </c>
+      <c r="B168" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="C168" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D168" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E168">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="169" spans="1:5">
+      <c r="A169" s="2">
+        <v>1979</v>
+      </c>
+      <c r="B169" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="C169" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D169" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E169">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="170" spans="1:5">
+      <c r="A170" s="2">
+        <v>1980</v>
+      </c>
+      <c r="B170" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="C170" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D170" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E170">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="171" spans="1:5">
+      <c r="A171" s="2">
+        <v>1981</v>
+      </c>
+      <c r="B171" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="C171" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D171" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E171">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="172" spans="1:5">
+      <c r="A172" s="2">
+        <v>1982</v>
+      </c>
+      <c r="B172" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="C172" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D172" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E172">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="173" spans="1:5">
+      <c r="A173" s="2">
+        <v>1983</v>
+      </c>
+      <c r="B173" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="C173" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D173" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E173">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="174" spans="1:5">
+      <c r="A174" s="2">
+        <v>1984</v>
+      </c>
+      <c r="B174" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="C174" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D174" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E174">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="175" spans="1:5">
+      <c r="A175" s="2">
+        <v>1985</v>
+      </c>
+      <c r="B175" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="C175" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D175" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E175">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="176" spans="1:5">
+      <c r="A176" s="2">
+        <v>1986</v>
+      </c>
+      <c r="B176" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="C176" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D176" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E176">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="177" spans="1:5">
+      <c r="A177" s="2">
+        <v>1987</v>
+      </c>
+      <c r="B177" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="C177" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D177" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E177">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="178" spans="1:5">
+      <c r="A178" s="2">
+        <v>1988</v>
+      </c>
+      <c r="B178" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="C178" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D178" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E178">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="179" spans="1:5">
+      <c r="A179" s="2">
+        <v>1989</v>
+      </c>
+      <c r="B179" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="C179" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D179" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E179">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="180" spans="1:5">
+      <c r="A180" s="2">
+        <v>1990</v>
+      </c>
+      <c r="B180" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="C180" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D180" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E180">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="181" spans="1:5">
+      <c r="A181" s="2">
+        <v>1991</v>
+      </c>
+      <c r="B181" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="C181" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D181" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E181">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="182" spans="1:5">
+      <c r="A182" s="2">
+        <v>1992</v>
+      </c>
+      <c r="B182" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="C182" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D182" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E182">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="183" spans="1:5">
+      <c r="A183" s="2">
+        <v>1993</v>
+      </c>
+      <c r="B183" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="C183" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D183" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E183">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="184" spans="1:5">
+      <c r="A184" s="2">
+        <v>1994</v>
+      </c>
+      <c r="B184" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="C184" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D184" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E184">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="185" spans="1:5">
+      <c r="A185" s="2">
+        <v>1995</v>
+      </c>
+      <c r="B185" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="C185" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D185" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E185">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="186" spans="1:5">
+      <c r="A186" s="2">
+        <v>1996</v>
+      </c>
+      <c r="B186" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="C186" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D186" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E186">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="187" spans="1:5">
+      <c r="A187" s="2">
+        <v>1997</v>
+      </c>
+      <c r="B187" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="C187" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D187" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E187">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="188" spans="1:5">
+      <c r="A188" s="2">
+        <v>1998</v>
+      </c>
+      <c r="B188" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="C188" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D188" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E188">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="189" spans="1:5">
+      <c r="A189" s="2">
+        <v>1999</v>
+      </c>
+      <c r="B189" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="C189" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D189" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E189">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="190" spans="1:5">
+      <c r="A190" s="2">
+        <v>2000</v>
+      </c>
+      <c r="B190" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="C190" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D190" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E190">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="191" spans="1:5">
+      <c r="A191" s="2">
+        <v>2001</v>
+      </c>
+      <c r="B191" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="C191" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D191" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E191">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="192" spans="1:5">
+      <c r="A192" s="2">
+        <v>2002</v>
+      </c>
+      <c r="B192" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="C192" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D192" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E192">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="193" spans="1:6">
+      <c r="A193" s="2">
+        <v>2003</v>
+      </c>
+      <c r="B193" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="C193" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D193" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E193">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="194" spans="1:6">
+      <c r="A194" s="2">
+        <v>2004</v>
+      </c>
+      <c r="B194" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="C194" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D194" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E194">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="195" spans="1:6">
+      <c r="A195" s="2">
+        <v>2005</v>
+      </c>
+      <c r="B195" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="C195" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D195" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E195">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="196" spans="1:6">
+      <c r="A196" s="2">
+        <v>2006</v>
+      </c>
+      <c r="B196" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="C196" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D196" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E196">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="197" spans="1:6">
+      <c r="A197" s="2">
+        <v>2007</v>
+      </c>
+      <c r="B197" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="C197" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D197" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E197">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="198" spans="1:6">
+      <c r="A198" s="2">
+        <v>2008</v>
+      </c>
+      <c r="B198" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="C198" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D198" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E198">
+        <v>1</v>
+      </c>
+      <c r="F198" s="11" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="199" spans="1:6">
+      <c r="A199" s="2">
+        <v>2009</v>
+      </c>
+      <c r="B199" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="C199" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D199" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E199">
+        <v>1</v>
+      </c>
+      <c r="F199" s="12"/>
+    </row>
+    <row r="200" spans="1:6" hidden="1">
+      <c r="A200" s="2">
+        <v>2010</v>
+      </c>
+      <c r="B200" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="C200" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D200" s="2" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="201" spans="1:6" hidden="1">
+      <c r="A201" s="2">
+        <v>2011</v>
+      </c>
+      <c r="B201" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="C201" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D201" s="2" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="202" spans="1:6" hidden="1">
+      <c r="A202" s="2">
+        <v>2012</v>
+      </c>
+      <c r="B202" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="C202" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D202" s="2" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="203" spans="1:6" hidden="1">
+      <c r="A203" s="2">
+        <v>2013</v>
+      </c>
+      <c r="B203" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="C203" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D203" s="2" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="204" spans="1:6" hidden="1">
+      <c r="A204" s="2">
+        <v>2014</v>
+      </c>
+      <c r="B204" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="C204" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D204" s="2" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="205" spans="1:6" hidden="1">
+      <c r="A205" s="2">
+        <v>2015</v>
+      </c>
+      <c r="B205" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="C205" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D205" s="2" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="206" spans="1:6" hidden="1">
+      <c r="A206" s="2">
+        <v>2016</v>
+      </c>
+      <c r="B206" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="C206" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D206" s="2" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="207" spans="1:6" hidden="1">
+      <c r="A207" s="2">
+        <v>2017</v>
+      </c>
+      <c r="B207" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="C207" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D207" s="2" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="208" spans="1:6" hidden="1">
+      <c r="A208" s="2">
+        <v>2018</v>
+      </c>
+      <c r="B208" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="C208" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D208" s="2" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="209" spans="1:4" hidden="1">
+      <c r="A209" s="2">
+        <v>2019</v>
+      </c>
+      <c r="B209" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="C209" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D209" s="2" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="210" spans="1:4" hidden="1">
+      <c r="A210" s="2">
+        <v>2020</v>
+      </c>
+      <c r="B210" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="C210" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D210" s="2" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="211" spans="1:4" hidden="1">
+      <c r="A211" s="2">
+        <v>2021</v>
+      </c>
+      <c r="B211" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="C211" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D211" s="2" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="212" spans="1:4" hidden="1">
+      <c r="A212" s="2">
+        <v>2022</v>
+      </c>
+      <c r="B212" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="C212" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D212" s="2" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="213" spans="1:4" hidden="1">
+      <c r="A213" s="2">
+        <v>2023</v>
+      </c>
+      <c r="B213" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="C213" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D213" s="2" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="214" spans="1:4" hidden="1">
+      <c r="A214" s="2">
+        <v>2024</v>
+      </c>
+      <c r="B214" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="C214" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D214" s="2" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="215" spans="1:4" hidden="1">
+      <c r="A215" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B215" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="C215" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D215" s="2" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="216" spans="1:4" hidden="1">
+      <c r="A216" s="2">
+        <v>2026</v>
+      </c>
+      <c r="B216" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="C216" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D216" s="2" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="217" spans="1:4" hidden="1">
+      <c r="A217" s="2">
+        <v>2027</v>
+      </c>
+      <c r="B217" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="C217" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D217" s="2" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="218" spans="1:4" hidden="1">
+      <c r="A218" s="2">
+        <v>2028</v>
+      </c>
+      <c r="B218" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="C218" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D218" s="2" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="219" spans="1:4" hidden="1">
+      <c r="A219" s="2">
+        <v>2029</v>
+      </c>
+      <c r="B219" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="C219" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D219" s="2" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="220" spans="1:4" hidden="1">
+      <c r="A220" s="2">
+        <v>2030</v>
+      </c>
+      <c r="B220" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="C220" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D220" s="2" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="221" spans="1:4" hidden="1">
+      <c r="A221" s="2">
+        <v>2031</v>
+      </c>
+      <c r="B221" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="C221" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D221" s="2" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="222" spans="1:4" hidden="1">
+      <c r="A222" s="2">
+        <v>2032</v>
+      </c>
+      <c r="B222" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="C222" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D222" s="2" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="223" spans="1:4" hidden="1">
+      <c r="A223" s="2">
+        <v>2033</v>
+      </c>
+      <c r="B223" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="C223" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D223" s="2" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="224" spans="1:4" hidden="1">
+      <c r="A224" s="2">
+        <v>2034</v>
+      </c>
+      <c r="B224" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="C224" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D224" s="2" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="225" spans="1:4" hidden="1">
+      <c r="A225" s="2">
+        <v>2035</v>
+      </c>
+      <c r="B225" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="C225" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D225" s="2" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="226" spans="1:4" hidden="1">
+      <c r="A226" s="2">
+        <v>2036</v>
+      </c>
+      <c r="B226" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="C226" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D226" s="2" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="227" spans="1:4" hidden="1">
+      <c r="A227" s="2">
+        <v>2037</v>
+      </c>
+      <c r="B227" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="C227" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D227" s="2" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="228" spans="1:4" hidden="1">
+      <c r="A228" s="2">
+        <v>2038</v>
+      </c>
+      <c r="B228" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="C228" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D228" s="2" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="229" spans="1:4" hidden="1">
+      <c r="A229" s="2">
+        <v>2039</v>
+      </c>
+      <c r="B229" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="C229" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D229" s="2" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="230" spans="1:4" hidden="1">
+      <c r="A230" s="2">
+        <v>2040</v>
+      </c>
+      <c r="B230" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="C230" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D230" s="2" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="231" spans="1:4" hidden="1">
+      <c r="A231" s="2">
+        <v>2041</v>
+      </c>
+      <c r="B231" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="C231" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D231" s="2" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="232" spans="1:4" hidden="1">
+      <c r="A232" s="2">
+        <v>2042</v>
+      </c>
+      <c r="B232" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="C232" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D232" s="2" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="233" spans="1:4" hidden="1">
+      <c r="A233" s="2">
+        <v>2043</v>
+      </c>
+      <c r="B233" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="C233" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D233" s="2" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="234" spans="1:4" hidden="1">
+      <c r="A234" s="2">
+        <v>2044</v>
+      </c>
+      <c r="B234" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="C234" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D234" s="2" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="235" spans="1:4" hidden="1">
+      <c r="A235" s="2">
+        <v>2045</v>
+      </c>
+      <c r="B235" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="C235" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D235" s="2" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="236" spans="1:4" hidden="1">
+      <c r="A236" s="2">
+        <v>2046</v>
+      </c>
+      <c r="B236" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="C236" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D236" s="2" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="237" spans="1:4" hidden="1">
+      <c r="A237" s="2">
+        <v>2047</v>
+      </c>
+      <c r="B237" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="C237" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D237" s="2" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="238" spans="1:4" hidden="1">
+      <c r="A238" s="2">
+        <v>2048</v>
+      </c>
+      <c r="B238" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="C238" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D238" s="2" t="s">
+        <v>180</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <autoFilter ref="A3:D238">
+    <filterColumn colId="3">
+      <filters>
+        <filter val="行政处罚"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
+  <mergeCells count="2">
     <mergeCell ref="A1:D2"/>
+    <mergeCell ref="F198:F199"/>
   </mergeCells>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
-  <sheetData/>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
-  <sheetData/>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
